--- a/Data/branch_wise_stock_status_copy.xlsx
+++ b/Data/branch_wise_stock_status_copy.xlsx
@@ -40,6 +40,9 @@
     <t>Super Over Stock</t>
   </si>
   <si>
+    <t>Branch Total</t>
+  </si>
+  <si>
     <t>BOG</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>TGL</t>
-  </si>
-  <si>
-    <t>VRB</t>
   </si>
 </sst>
 </file>
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -561,19 +561,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
         <v>38</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -613,19 +613,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -691,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
       <c r="G11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -951,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
         <v>31</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
         <v>8</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
       </c>
       <c r="H19">
         <v>57</v>
@@ -1006,16 +1006,16 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1032,16 +1032,16 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
       <c r="H23">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1159,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1211,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>5</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1292,16 +1292,16 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1318,16 +1318,16 @@
         <v>38</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>7</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status_copy.xlsx
+++ b/Data/branch_wise_stock_status_copy.xlsx
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -561,19 +561,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -596,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -613,10 +613,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>37</v>
@@ -674,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -691,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -723,10 +723,10 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>42</v>
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -769,16 +769,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -824,16 +824,16 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -850,16 +850,16 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -882,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -928,13 +928,13 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>39</v>
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1006,16 +1006,16 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1055,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1136,16 +1136,16 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1191,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1211,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1269,13 +1269,13 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1292,10 +1292,10 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>11</v>
@@ -1318,10 +1318,10 @@
         <v>38</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>10</v>

--- a/Data/branch_wise_stock_status_copy.xlsx
+++ b/Data/branch_wise_stock_status_copy.xlsx
@@ -529,25 +529,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -555,25 +555,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -581,25 +581,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -607,25 +607,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -633,25 +633,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -659,25 +659,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -685,25 +685,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
       <c r="H8">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -711,25 +711,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -737,25 +737,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -763,25 +763,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>16</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
       <c r="H11">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -789,25 +789,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
       <c r="H12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -815,25 +815,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -841,25 +841,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -867,25 +867,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -893,25 +893,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -919,25 +919,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -945,25 +945,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -971,25 +971,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -997,25 +997,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1023,25 +1023,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1049,25 +1049,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1075,25 +1075,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1101,25 +1101,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>6</v>
       </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
       <c r="H24">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1127,25 +1127,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
       <c r="H25">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1153,7 +1153,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1162,16 +1162,16 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1179,25 +1179,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
         <v>32</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27">
-        <v>8</v>
-      </c>
-      <c r="H27">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1205,25 +1205,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1231,25 +1231,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1257,25 +1257,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1283,25 +1283,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1309,25 +1309,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status_copy.xlsx
+++ b/Data/branch_wise_stock_status_copy.xlsx
@@ -40,6 +40,12 @@
     <t>Super Over Stock</t>
   </si>
   <si>
+    <t>AvgSaleVRB</t>
+  </si>
+  <si>
+    <t>TDCL Central WH</t>
+  </si>
+  <si>
     <t>Branch Total</t>
   </si>
   <si>
@@ -73,7 +79,7 @@
     <t>GZP</t>
   </si>
   <si>
-    <t>HZJ</t>
+    <t>CND</t>
   </si>
   <si>
     <t>JES</t>
@@ -125,12 +131,6 @@
   </si>
   <si>
     <t>SAV</t>
-  </si>
-  <si>
-    <t>SYL</t>
-  </si>
-  <si>
-    <t>TGL</t>
   </si>
 </sst>
 </file>
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -561,19 +561,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -587,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -613,19 +613,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -639,19 +639,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>23</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
       <c r="H12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -847,16 +847,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>18</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -951,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1084,16 +1084,16 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1136,16 +1136,16 @@
         <v>35</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
       <c r="H25">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1159,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1185,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1214,16 +1214,16 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
       <c r="H29">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1315,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status_copy.xlsx
+++ b/Data/branch_wise_stock_status_copy.xlsx
@@ -529,25 +529,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -555,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -581,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -607,25 +607,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -633,25 +633,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -659,25 +659,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -685,25 +685,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -711,25 +711,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -737,25 +737,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -763,22 +763,22 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>24</v>
@@ -789,25 +789,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -815,25 +815,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -841,25 +841,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -867,22 +867,22 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>23</v>
@@ -893,25 +893,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -919,25 +919,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -945,25 +945,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -971,25 +971,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -997,25 +997,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
       <c r="H20">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1023,25 +1023,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1049,13 +1049,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1064,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1075,25 +1075,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1101,25 +1101,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1127,25 +1127,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1153,25 +1153,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>19</v>
@@ -1205,25 +1205,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>29</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1231,25 +1231,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1257,25 +1257,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1283,25 +1283,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1309,25 +1309,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
